--- a/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_DEU_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B7C5D0-80DB-495E-8CC6-EBCA7D193D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551574D-4018-40F8-A1B5-C69427FA170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -411,10 +411,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH4,S2aH2,S1aH6,S2aH6,S3aH5,S3aH4,S3aH3,S1aH3,S1aH2,S2aH3,S3aH6,S1aH5,S2aH4,S2aH5</t>
-  </si>
-  <si>
-    <t>S3aH8,S1aH1,S2aH7,S1aH8,S2aH8,S1aH7,S3aH1,S2aH1,S3aH7</t>
+    <t>S1aH3,S1aH6,S3aH3,S3aH2,S1aH4,S2aH2,S3aH4,S2aH6,S3aH5,S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S3aH6</t>
+  </si>
+  <si>
+    <t>S1aH7,S2aH1,S3aH7,S3aH8,S3aH1,S1aH8,S2aH8,S1aH1,S2aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -986,7 +986,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S1aH1,S2aH7,S1aH8,S2aH8,S1aH7,S3aH1,S2aH1,S3aH7</v>
+        <v>S1aH7,S2aH1,S3aH7,S3aH8,S3aH1,S1aH8,S2aH8,S1aH1,S2aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH4,S2aH2,S1aH6,S2aH6,S3aH5,S3aH4,S3aH3,S1aH3,S1aH2,S2aH3,S3aH6,S1aH5,S2aH4,S2aH5</v>
+        <v>S1aH3,S1aH6,S3aH3,S3aH2,S1aH4,S2aH2,S3aH4,S2aH6,S3aH5,S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S3aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865B26CA-8F1B-4559-92BD-7CED08B7D1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72244E2-303F-4C3C-B19D-8C8F376E5D16}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1745,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74C1AD8-42A3-4FCA-828C-474FD08591F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0567D0CC-B4B0-41B4-9572-08E2609A9538}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1824,10 +1824,10 @@
         <v>119</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>0.95029816876880036</v>
+        <v>8.4099424771755762E-2</v>
       </c>
       <c r="O4" t="s">
         <v>130</v>
@@ -1859,10 +1859,10 @@
         <v>119</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>8.4099424771755762E-2</v>
+        <v>0.95029816876880036</v>
       </c>
       <c r="O5" t="s">
         <v>130</v>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB495DE-904A-4C9A-B87C-92907708A6C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27FE2D3-E73C-4C3B-8BF8-690B2E17AEA7}">
   <dimension ref="B2:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
